--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value802.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value802.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.94501933280086</v>
+        <v>1.271983861923218</v>
       </c>
       <c r="B1">
-        <v>3.097025550860355</v>
+        <v>1.859593868255615</v>
       </c>
       <c r="C1">
-        <v>2.438821969107783</v>
+        <v>4.280735492706299</v>
       </c>
       <c r="D1">
-        <v>2.265828907730488</v>
+        <v>0.8278422355651855</v>
       </c>
       <c r="E1">
-        <v>1.89696875054123</v>
+        <v>0.794742226600647</v>
       </c>
     </row>
   </sheetData>
